--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="periodo_selecionado" max="60" min="1" page="10" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="periodo_selecionado" max="60" min="1" page="10" val="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1116,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S2" s="8"/>
       <c r="U2" s="9"/>
@@ -1185,7 +1185,7 @@
       <c r="I4" s="4"/>
       <c r="K4" s="27">
         <f>AVERAGE(G8:G24)</f>
-        <v>0.28823529411764709</v>
+        <v>0.40588235294117647</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1639,10 +1639,14 @@
       <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="15">
+        <v>9</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
       <c r="G13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1655,10 +1659,14 @@
       <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="15">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1185,7 @@
       <c r="I4" s="4"/>
       <c r="K4" s="27">
         <f>AVERAGE(G8:G24)</f>
-        <v>0.40588235294117647</v>
+        <v>0.41470588235294115</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1663,10 +1663,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,10 +1679,14 @@
       <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1185,7 @@
       <c r="I4" s="4"/>
       <c r="K4" s="27">
         <f>AVERAGE(G8:G24)</f>
-        <v>0.41470588235294115</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="16">
         <v>1</v>
@@ -1680,13 +1680,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="16">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:68" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
